--- a/simulation_results_glmm/April17_fullsimulation_contXY/summary-results-bias-edit.xlsx
+++ b/simulation_results_glmm/April17_fullsimulation_contXY/summary-results-bias-edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warde\Documents\GitHub\Master-Thesis\simulation_results_glmm\April17_fullsimulation_contXY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501324E4-3266-43C0-9D97-DB71D9BC4654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D9665F-BCC1-4F19-AE48-A9D16B2EEA87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{85079B94-A712-479E-8270-5F1B97823382}"/>
   </bookViews>
@@ -1102,8 +1102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0010314-03E9-47E5-B5C2-8F5F1060B28E}">
   <dimension ref="A1:AZ127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44:H61"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1114,16 +1114,12 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="14.85546875" customWidth="1"/>
     <col min="13" max="13" width="20.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="13.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="27.140625" customWidth="1"/>
-    <col min="21" max="25" width="27.140625" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" customWidth="1"/>
-    <col min="27" max="31" width="17.42578125" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="27.7109375" customWidth="1"/>
-    <col min="33" max="37" width="27.7109375" hidden="1" customWidth="1"/>
+    <col min="14" max="15" width="13.7109375" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" customWidth="1"/>
+    <col min="18" max="19" width="13.7109375" customWidth="1"/>
+    <col min="20" max="25" width="27.140625" customWidth="1"/>
+    <col min="26" max="31" width="17.42578125" customWidth="1"/>
+    <col min="32" max="37" width="27.7109375" customWidth="1"/>
     <col min="38" max="39" width="12.85546875" customWidth="1"/>
     <col min="40" max="40" width="13.85546875" customWidth="1"/>
     <col min="41" max="41" width="12.85546875" customWidth="1"/>
